--- a/medicine/Sexualité et sexologie/Brittney_Powell/Brittney_Powell.xlsx
+++ b/medicine/Sexualité et sexologie/Brittney_Powell/Brittney_Powell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brittney Powell, née le 4 mars 1972 à Wurtzbourg, alors en Allemagne de l'Ouest, est une actrice allemande.
 Elle a posé pour Playboy sous le nom de Brittney Rache.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vie privée
-Elle a été en couple avec l'acteur américain Verne Troyer, interprète de Mini-Moi dans la série de films Austin Powers, jusqu'à la mort de ce dernier en 2018[1],[2].
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été en couple avec l'acteur américain Verne Troyer, interprète de Mini-Moi dans la série de films Austin Powers, jusqu'à la mort de ce dernier en 2018,.
 </t>
         </is>
       </c>
@@ -546,7 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cinéma
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1992 : Round Trip to Heaven d'Alan Roberts : contestataire
 1993 : To Be the Best de Joseph Merhi (vidéo) : Cheryl
 1993 : Airborne de Rob S. Bowman : Nikki
@@ -559,12 +582,116 @@
 2010 : Stacy's Mom de Patrick Sayre : mère de Stacy
 2012 : Devils Inside de Thomas Whelan : Elizabeth
 2012 : The Polterguys de Thomas Whelan : petite amie du Dr Cox
-Télévision
-1995 : Friends, saison 2, épisode 5 - Celui qui se faisait passer pour Bob (The One With Five Steaks and An Eggplant)  : Jade
-Téléfilms
-1994 : Mortel Rendez-vous (A Friend to Die For) de William A. Graham : première danseuse
-1997 : L.A. Johns de Joyce Chopra : Liz Shelby
-Séries télévisées
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brittney_Powell</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brittney_Powell</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1995 : Friends, saison 2, épisode 5 - Celui qui se faisait passer pour Bob (The One With Five Steaks and An Eggplant)  : Jade</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brittney_Powell</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brittney_Powell</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Téléfilms</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1994 : Mortel Rendez-vous (A Friend to Die For) de William A. Graham : première danseuse
+1997 : L.A. Johns de Joyce Chopra : Liz Shelby</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brittney_Powell</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brittney_Powell</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Séries télévisées</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1992 : 2000, avenue de l'océan : (Saison 1 - Épisode 1)
 1992 : Harry et les Henderson (Harry and the Hendersons)) : (Saison 3 - Épisode 5)
 1992 : Génération musique (California Dreams) : Randi Jo (Saison 1 - Épisodes 1, 4 et 11)
